--- a/主配置表.xlsx
+++ b/主配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797593CE-FF21-40B5-BBAA-957E0955BC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18BBC54-6064-4BE8-B342-0D57B5F4ECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="802" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="802" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智核" sheetId="36" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="719">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1815,10 +1815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位移技能范围+{参数}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始,对"范围({参数})"目标施加恐惧状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2827,10 +2823,6 @@
   </si>
   <si>
     <t>感恩节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余烬 巫毒教</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3181,9 +3173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迅捷</t>
-  </si>
-  <si>
     <t>冰晶</t>
   </si>
   <si>
@@ -3207,6 +3196,62 @@
   <si>
     <t>绝对差距|一座大山|星之痕</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度
+(0~75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂潮|胆小如鼠|专业坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+{参数}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局速度+(行为冷却 - {参数})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费在燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传秘术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争反转|诅咒连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值低于{参数}%时将被"斩杀({参数})"
+死后立即变为返生者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -3635,8 +3680,8 @@
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65" outlineLevelCol="1"/>
@@ -3647,7 +3692,7 @@
     <col min="4" max="4" width="7.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="78.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="76.25" style="4" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="14.75" style="4" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="2.125" style="4" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="8.75" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -3683,7 +3728,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>362</v>
@@ -3790,13 +3835,13 @@
         <v>3</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3833,6 +3878,12 @@
       <c r="L6" s="4">
         <v>3</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="P6" s="4" t="s">
         <v>353</v>
       </c>
@@ -3872,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>308</v>
@@ -3913,13 +3964,13 @@
         <v>20</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3980,13 +4031,13 @@
         <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>70</v>
@@ -4053,7 +4104,7 @@
         <v>320</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="46.9">
@@ -4073,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>30</v>
@@ -4085,10 +4136,10 @@
         <v>240</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="31.25">
@@ -4111,7 +4162,7 @@
         <v>288</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>80</v>
@@ -4123,10 +4174,10 @@
         <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="31.25">
@@ -4161,13 +4212,13 @@
         <v>50</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="31.25">
@@ -4187,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>80</v>
@@ -4202,7 +4253,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>23</v>
@@ -4225,7 +4276,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
@@ -4234,13 +4285,13 @@
         <v>80</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L17" s="4">
         <v>2</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>72</v>
@@ -4266,28 +4317,28 @@
         <v>8</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L18" s="4">
         <v>2</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>72</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="31.25">
@@ -4307,7 +4358,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>289</v>
@@ -4322,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>24</v>
@@ -4351,7 +4402,7 @@
         <v>245</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>80</v>
@@ -4363,10 +4414,10 @@
         <v>3</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>18</v>
@@ -4398,13 +4449,13 @@
         <v>80</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L21" s="4">
         <v>2</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4439,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="78.150000000000006">
@@ -4459,7 +4510,7 @@
         <v>246</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>80</v>
@@ -4471,10 +4522,10 @@
         <v>10</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>5</v>
@@ -4503,10 +4554,10 @@
         <v>5</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>5</v>
@@ -4538,13 +4589,13 @@
         <v>6</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="31.25">
@@ -4576,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>289</v>
@@ -4599,10 +4650,10 @@
         <v>8</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>5</v>
@@ -4611,13 +4662,13 @@
         <v>5</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="46.9">
@@ -4637,7 +4688,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>363</v>
@@ -4652,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="46.9">
@@ -4672,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>364</v>
@@ -4687,7 +4738,7 @@
         <v>289</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -4716,7 +4767,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>202</v>
@@ -4771,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>27</v>
@@ -4786,10 +4837,10 @@
         <v>243</v>
       </c>
       <c r="N32" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>689</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>402</v>
@@ -4827,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>72</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="31.25">
@@ -4865,13 +4916,13 @@
         <v>2</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="31.25">
@@ -4888,10 +4939,10 @@
         <v>8</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>80</v>
@@ -4903,13 +4954,13 @@
         <v>49</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="125">
@@ -4929,10 +4980,10 @@
         <v>8</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>80</v>
@@ -4944,13 +4995,13 @@
         <v>2</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="31.25">
@@ -4973,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>31</v>
@@ -4988,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>5</v>
@@ -5017,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>30</v>
@@ -5058,10 +5109,10 @@
         <v>216</v>
       </c>
       <c r="N39" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -5093,7 +5144,7 @@
         <v>5</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>27</v>
@@ -5102,46 +5153,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43" spans="1:16">
+      <c r="H43" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
     <row r="44" spans="1:16">
       <c r="C44" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>682</v>
+      <c r="H44" s="10" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="C45" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
+      <c r="H45" s="4" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="F46" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="C47" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>267</v>
@@ -5149,25 +5211,25 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="C48" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>701</v>
+        <v>668</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -5179,25 +5241,22 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>703</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="3:10">
@@ -5206,46 +5265,37 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="4" t="s">
-        <v>704</v>
-      </c>
     </row>
     <row r="52" spans="3:10">
       <c r="C52" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>223</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>705</v>
-      </c>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="H53" s="4" t="s">
-        <v>706</v>
-      </c>
     </row>
     <row r="54" spans="3:10">
       <c r="C54" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E54" s="10"/>
     </row>
@@ -5298,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4602D06-9C9A-47D3-A7BE-2E11617E71A9}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -5395,10 +5445,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>413</v>
+        <v>709</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5458,7 +5508,7 @@
         <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>223</v>
@@ -5473,7 +5523,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>72</v>
@@ -5504,10 +5554,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>223</v>
@@ -5522,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5568,10 +5618,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.25">
@@ -5617,10 +5667,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5712,7 +5762,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5746,7 +5796,7 @@
         <v>264</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -5769,7 +5819,7 @@
         <v>270</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>72</v>
@@ -5784,44 +5834,44 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.25">
       <c r="A21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>715</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>716</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.25">
       <c r="A22" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
@@ -5832,16 +5882,19 @@
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="62.5">
+      <c r="G22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -5855,7 +5908,30 @@
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="62.5">
+      <c r="A24" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5910,10 +5986,10 @@
         <v>228</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5946,10 +6022,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D6" s="6">
         <v>50</v>
@@ -5968,27 +6044,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430EF5C9-1F23-4B2B-BB7E-B40B85509019}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="25.25" customWidth="1"/>
-    <col min="11" max="11" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65">
+    <row r="1" spans="1:14" ht="15.65">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6015,16 +6093,19 @@
         <v>212</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.65">
+    <row r="2" spans="1:14" ht="15.65">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6041,8 +6122,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.65">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.65">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -6059,7 +6141,7 @@
         <v>133</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
@@ -6070,20 +6152,23 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>196</v>
       </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.65">
+    <row r="4" spans="1:14" ht="15.65">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -6098,7 +6183,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G4" s="3">
         <v>75</v>
@@ -6109,20 +6194,23 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>193</v>
       </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.65">
+    <row r="5" spans="1:14" ht="15.65">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6137,7 +6225,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -6148,20 +6236,23 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>194</v>
       </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.65">
+    <row r="6" spans="1:14" ht="15.65">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -6178,7 +6269,7 @@
         <v>132</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -6189,20 +6280,23 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.65">
+    <row r="7" spans="1:14" ht="15.65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -6217,7 +6311,7 @@
         <v>180</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
@@ -6228,38 +6322,39 @@
       <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.65">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:14" ht="15.65">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>282</v>
+        <v>713</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -6267,38 +6362,41 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.65">
+    <row r="9" spans="1:14" ht="15.65">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -6306,177 +6404,193 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.65">
+    <row r="10" spans="1:14" ht="15.65">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>484</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.65">
+    <row r="11" spans="1:14" ht="15.65">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G11" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="3">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.65">
+    <row r="12" spans="1:14" ht="15.65">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>450</v>
+        <v>565</v>
       </c>
       <c r="D12" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>626</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="15.65">
+    <row r="13" spans="1:14" ht="15.65">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G13" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>515</v>
+      <c r="L13" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="15.65">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="15.65">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -6485,10 +6599,10 @@
         <v>132</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="G14" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -6496,54 +6610,101 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.65">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15.65">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>556</v>
+        <v>199</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.65">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F16" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L16" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6555,28 +6716,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5189B-70FD-4AD9-8AE5-927985E2F652}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.25">
+    <row r="1" spans="1:12" ht="31.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6595,17 +6757,20 @@
       <c r="G1" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6615,14 +6780,14 @@
       <c r="E2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -6639,20 +6804,23 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
+      <c r="H3" s="3">
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -6674,25 +6842,28 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
+      <c r="H4" s="3">
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -6709,25 +6880,28 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
+      <c r="H5" s="3">
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -6744,20 +6918,23 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
+      <c r="H6" s="3">
+        <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>495</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -6779,25 +6956,28 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
+      <c r="H7" s="3">
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -6814,20 +6994,23 @@
       <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
+      <c r="H8" s="3">
+        <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -6849,25 +7032,28 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -6884,25 +7070,28 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>11</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -6919,25 +7108,28 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>5</v>
+      <c r="H11" s="3">
+        <v>13</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>5</v>
+        <v>536</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -6954,25 +7146,28 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
+      <c r="H12" s="3">
+        <v>14</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -6989,25 +7184,28 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
+      <c r="H13" s="3">
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -7024,25 +7222,28 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -7059,25 +7260,28 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>10</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -7086,7 +7290,7 @@
         <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F16" s="3">
         <v>150</v>
@@ -7094,31 +7298,34 @@
       <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>5</v>
+      <c r="H16" s="3">
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="3">
         <v>75</v>
@@ -7129,20 +7336,23 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+      <c r="H17" s="3">
+        <v>20</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -7153,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18" s="3">
         <v>50</v>
@@ -7164,20 +7374,23 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+      <c r="H18" s="3">
+        <v>6</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>215</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -7199,20 +7412,23 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="3">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>5</v>
+      <c r="J19" s="8" t="s">
+        <v>656</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -7234,31 +7450,34 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E21" s="3">
         <v>175</v>
@@ -7269,20 +7488,23 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>30</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -7304,20 +7526,23 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -7339,20 +7564,23 @@
       <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+      <c r="H23" s="3">
+        <v>13</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -7374,25 +7602,28 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -7409,20 +7640,23 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>5</v>
+      <c r="H25" s="3">
+        <v>13</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>599</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -7444,20 +7678,23 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
+      <c r="H26" s="3">
+        <v>11</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="K26" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -7479,170 +7716,147 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
+      <c r="H27" s="3">
+        <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F28" s="3">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3">
+        <v>125</v>
+      </c>
+      <c r="F29" s="3">
+        <v>125</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="H29" s="3">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="3">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="3">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3">
-        <v>25</v>
-      </c>
-      <c r="G29" s="3">
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="3">
+        <v>900</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="3">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="3">
-        <v>125</v>
-      </c>
-      <c r="F30" s="3">
-        <v>125</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E31" s="3">
-        <v>900</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G31" s="3">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="80" spans="1:1" hidden="1">
-      <c r="A80" s="3">
+    <row r="31" spans="1:12">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="79" spans="1:1" hidden="1">
+      <c r="A79" s="3">
         <v>35</v>
       </c>
     </row>
@@ -7655,10 +7869,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A767E6B-3CFC-44A4-91B1-88989ECB7E30}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
@@ -7668,13 +7882,13 @@
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
+    <col min="7" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="24.625" customWidth="1"/>
+    <col min="11" max="11" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7694,16 +7908,19 @@
         <v>212</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7714,7 +7931,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -7736,20 +7953,23 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
+      <c r="H3" s="3">
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -7771,20 +7991,23 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
+      <c r="H4" s="3">
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -7806,20 +8029,23 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
+      <c r="H5" s="3">
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -7841,20 +8067,23 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
+      <c r="H6" s="3">
+        <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -7876,20 +8105,23 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
+      <c r="H7" s="3">
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -7911,20 +8143,23 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
+      <c r="H8" s="3">
+        <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -7946,20 +8181,23 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -7981,7 +8219,7 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
         <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -7991,10 +8229,13 @@
         <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -8016,20 +8257,23 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -8051,20 +8295,23 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
+      <c r="H12" s="3">
+        <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -8086,20 +8333,23 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
+      <c r="H13" s="3">
+        <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -8121,25 +8371,28 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -8148,7 +8401,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F15" s="3">
         <v>150</v>
@@ -8156,20 +8409,23 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8186,201 +8442,257 @@
         <v>85</v>
       </c>
       <c r="F16" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>5</v>
+      <c r="H16" s="3">
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="C17" s="3">
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="3">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3">
+        <v>250</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="15.65">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>250</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>175</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="15.65">
-      <c r="A18" s="3">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="15.65">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>275</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="15.65">
-      <c r="A19" s="3">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="15.65">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="3">
-        <v>300</v>
-      </c>
-      <c r="F19" s="3">
-        <v>300</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="15.65">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3">
-        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>593</v>
+        <v>299</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>358</v>
+        <v>591</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="15.65">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="15.65">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="15.65">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="J22" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.65">
-      <c r="I24" s="3"/>
+    <row r="25" spans="1:12" ht="15.65">
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8393,10 +8705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65" outlineLevelCol="1"/>
@@ -8406,22 +8718,22 @@
     <col min="3" max="3" width="7" style="3" customWidth="1" outlineLevel="1"/>
     <col min="4" max="5" width="11.5" style="3" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="12.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.5" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="39.25" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="37.5" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="26.875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9"/>
-    <col min="17" max="17" width="8.875" style="3"/>
-    <col min="18" max="20" width="9" customWidth="1"/>
-    <col min="21" max="16384" width="8.875" style="3"/>
+    <col min="7" max="8" width="9.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="39.25" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="37.5" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9"/>
+    <col min="18" max="18" width="8.875" style="3"/>
+    <col min="19" max="21" width="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8441,28 +8753,31 @@
         <v>212</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8473,7 +8788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8495,34 +8810,37 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
+      <c r="H3" s="3">
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>608</v>
+        <v>507</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>506</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -8539,29 +8857,32 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
+      <c r="H4" s="3">
+        <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>610</v>
+        <v>507</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>507</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>506</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8583,34 +8904,37 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
+      <c r="H5" s="3">
+        <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>609</v>
+        <v>507</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="N5" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -8627,29 +8951,32 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
+      <c r="H6" s="3">
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>509</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -8671,29 +8998,32 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>5</v>
+        <v>467</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1">
+    <row r="8" spans="1:15" ht="14.45" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -8715,29 +9045,32 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
+      <c r="H8" s="3">
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>697</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -8759,34 +9092,37 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>615</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -8803,34 +9139,37 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>25</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>538</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
@@ -8847,34 +9186,37 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>5</v>
+      <c r="H11" s="3">
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
@@ -8891,34 +9233,37 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="J12" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" s="3">
         <v>7</v>
@@ -8935,29 +9280,32 @@
       <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>493</v>
+      <c r="H13" s="3">
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>5</v>
+        <v>492</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -8979,34 +9327,37 @@
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>499</v>
+        <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C15" s="3">
         <v>6</v>
@@ -9023,29 +9374,32 @@
       <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>416</v>
+      <c r="H15" s="3">
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -9067,34 +9421,37 @@
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>5</v>
+      <c r="H16" s="3">
+        <v>10</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C17" s="3">
         <v>7</v>
@@ -9111,34 +9468,37 @@
       <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+      <c r="H17" s="3">
+        <v>25</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>665</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C18" s="3">
         <v>8</v>
@@ -9155,29 +9515,32 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+      <c r="H18" s="3">
+        <v>10</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -9199,29 +9562,32 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>5</v>
+      <c r="H19" s="3">
+        <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>422</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N19" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -9243,34 +9609,37 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+      <c r="H20" s="3">
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -9287,29 +9656,32 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>625</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>623</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -9331,29 +9703,32 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>423</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -9375,29 +9750,32 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+      <c r="H23" s="3">
+        <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="N23" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -9419,29 +9797,32 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -9463,29 +9844,32 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="3">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="J25" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -9507,29 +9891,32 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="3">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>612</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -9551,34 +9938,37 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
+      <c r="H27" s="3">
+        <v>11</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>280</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="N27" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C28" s="3">
         <v>4</v>
@@ -9595,29 +9985,32 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>5</v>
+      <c r="H28" s="3">
+        <v>11</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>644</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K28" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -9639,29 +10032,32 @@
       <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -9683,34 +10079,37 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>5</v>
+      <c r="H30" s="3">
+        <v>35</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>529</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>627</v>
+        <v>528</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C31" s="3">
         <v>7</v>
@@ -9727,29 +10126,32 @@
       <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>5</v>
+      <c r="H31" s="3">
+        <v>30</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>590</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>5</v>
+        <v>589</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>5</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9771,29 +10173,32 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
+      <c r="H32" s="3">
+        <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="K32" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -9815,30 +10220,33 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
+      <c r="H33" s="3">
+        <v>17</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -9860,30 +10268,33 @@
       <c r="G34" s="3">
         <v>2</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>5</v>
+      <c r="H34" s="3">
+        <v>27</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>696</v>
+        <v>456</v>
       </c>
       <c r="K34" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -9905,29 +10316,32 @@
       <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
+      <c r="H35" s="3">
+        <v>15</v>
       </c>
       <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -9949,29 +10363,32 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>5</v>
+      <c r="H36" s="3">
+        <v>13</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>568</v>
+        <v>5</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -9993,29 +10410,32 @@
       <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>5</v>
+      <c r="H37" s="3">
+        <v>13</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="K37" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -10037,29 +10457,32 @@
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>5</v>
+      <c r="H38" s="3">
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>573</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>572</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -10081,29 +10504,32 @@
       <c r="G39" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>5</v>
+      <c r="H39" s="3">
+        <v>13</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>595</v>
+        <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -10125,29 +10551,32 @@
       <c r="G40" s="3">
         <v>5</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="3">
+        <v>26</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="J40" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -10169,29 +10598,32 @@
       <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="3">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>527</v>
+        <v>414</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -10213,26 +10645,29 @@
       <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+      <c r="H42" s="3">
+        <v>15</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="M42" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -10254,34 +10689,37 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="H43" s="3">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>660</v>
-      </c>
       <c r="M43" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C44" s="3">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
@@ -10292,40 +10730,43 @@
       <c r="G44" s="3">
         <v>5</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+      <c r="H44" s="3">
+        <v>40</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>453</v>
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C45" s="3">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
@@ -10336,40 +10777,43 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3">
+        <v>50</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>498</v>
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>606</v>
+        <v>497</v>
       </c>
       <c r="K45" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
-        <v>432</v>
+        <v>5</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>431</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C46" s="3">
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E46" s="3">
         <v>900</v>
@@ -10380,40 +10824,43 @@
       <c r="G46" s="3">
         <v>9</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
+      <c r="H46" s="3">
+        <v>90</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>581</v>
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>5</v>
+        <v>580</v>
       </c>
       <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C47" s="3">
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
@@ -10424,25 +10871,28 @@
       <c r="G47" s="3">
         <v>10</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>453</v>
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10455,7 +10905,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA283EE9-E7B2-4739-B3A4-5B8E5BFF6E41}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -10485,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>325</v>
@@ -10544,10 +10994,13 @@
       <c r="F4" s="10" t="s">
         <v>412</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>182</v>
@@ -10582,7 +11035,7 @@
         <v>410</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10593,7 +11046,7 @@
         <v>276</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>7</v>
@@ -10610,7 +11063,7 @@
         <v>254</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>72</v>
@@ -10619,7 +11072,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>337</v>
@@ -10627,7 +11080,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>186</v>
@@ -10642,7 +11095,7 @@
         <v>399</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10681,6 +11134,9 @@
       <c r="F11" s="10" t="s">
         <v>404</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
@@ -10719,7 +11175,7 @@
         <v>406</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10727,7 +11183,7 @@
         <v>259</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D14" s="10">
         <v>6</v>
@@ -10736,12 +11192,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="10" t="s">
-        <v>623</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -10772,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -10792,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10891,7 +11342,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -10902,7 +11353,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -10935,7 +11386,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -10946,7 +11397,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -10968,7 +11419,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C19">
         <v>7</v>
